--- a/db/uploads/cofc_manila_names.xlsx
+++ b/db/uploads/cofc_manila_names.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansellgabrieldelayre/Sites/Evoting/db/uploads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansellgabrieldelayre/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B589B7-579A-7645-90B7-AC930367CE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C132B104-D44B-0547-A8BB-9125ED8B8BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{3DE1E3A1-7495-8D47-878F-103E803749D7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{3DE1E3A1-7495-8D47-878F-103E803749D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4024,7 +4024,7 @@
   <dimension ref="B1:C603"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
